--- a/intro.xlsx
+++ b/intro.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>음악관련 기능개발???</t>
   </si>
@@ -95,6 +95,21 @@
   </si>
   <si>
     <t>기타 GUI는 여건 되면</t>
+  </si>
+  <si>
+    <t>5/9 1차 개인 프로젝트 성과 발표 및 향후 목표 설정(이번 프로젝트에서 부족했던 부분의 보완과 딥 러닝 공부 방법에 대하여)</t>
+  </si>
+  <si>
+    <t>5/15,16일까지 각자 딥 러닝을 어떻게 공부 할 것인지 찾아보고 정보를 공유할 것</t>
+  </si>
+  <si>
+    <t>동현, 지환은 5월달 이내로 이하의 부분을 고려하여 파이썬 코드를 작성할 것 6월 첫째주 주말에 다시 발표 &lt;- 개인적으로는 기간이 길다고 생각 되기에 다음주 주말에 만나는 김에 재논의</t>
+  </si>
+  <si>
+    <t>1. 외부 패키지를 이용한 프로그래밍</t>
+  </si>
+  <si>
+    <t>2. 만든 소스 코드를 class화 해보기</t>
   </si>
 </sst>
 </file>
@@ -113,12 +128,18 @@
     </font>
     <font/>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor rgb="FFFFE599"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -127,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -137,6 +158,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -477,6 +499,59 @@
         <v>27</v>
       </c>
     </row>
+    <row r="27">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
